--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02E53C-C85B-BC4A-A9F7-179C349FD95B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2E6A7-6B2B-F745-A25E-BA9D18F43D53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +587,9 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -622,6 +625,9 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -648,10 +654,16 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
+      <c r="C14">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
+      </c>
+      <c r="C15">
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2E6A7-6B2B-F745-A25E-BA9D18F43D53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D6585-A428-4079-BC2F-E8541B23FA28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Name:</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Ünlü Göksu</t>
   </si>
   <si>
-    <t>Lamrini Sanae</t>
-  </si>
-  <si>
     <t>Steffen Homann</t>
   </si>
   <si>
@@ -145,16 +142,29 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Sanae Lamrini</t>
+  </si>
+  <si>
+    <t>Dilay Bulak (neu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -496,18 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,25 +565,34 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -580,18 +600,21 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="B6">
+        <v>14.5</v>
+      </c>
       <c r="C6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -599,10 +622,10 @@
         <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -610,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -621,15 +644,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="B10">
+        <v>14.5</v>
+      </c>
       <c r="C10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -637,91 +663,118 @@
         <v>16</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
       </c>
       <c r="C14">
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D6585-A428-4079-BC2F-E8541B23FA28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6165B6-B2C7-48DA-B517-BC077EDC41CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Lars Olschewski</t>
   </si>
   <si>
-    <t>Anne Dißelkamp-Tieze</t>
-  </si>
-  <si>
     <t>Nainpreet Kularia</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Dilay Bulak (neu)</t>
+  </si>
+  <si>
+    <t>Anne Dißelkamp-Tietze</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -600,12 +600,12 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>14.5</v>
@@ -613,40 +613,49 @@
       <c r="C6">
         <v>24</v>
       </c>
+      <c r="D6">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>14.5</v>
@@ -654,21 +663,27 @@
       <c r="C10">
         <v>24</v>
       </c>
+      <c r="D10">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -676,7 +691,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -684,23 +699,29 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>12.5</v>
       </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>12.5</v>
       </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5.5</v>
@@ -711,7 +732,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>19.5</v>
@@ -719,7 +740,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -730,44 +751,44 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>10</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6165B6-B2C7-48DA-B517-BC077EDC41CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B1000A-925D-644D-95F3-1BC57D0E088E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -509,16 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,20 +568,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -591,19 +597,28 @@
       <c r="C4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
       <c r="P5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -617,13 +632,16 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
       <c r="D7">
         <v>10</v>
       </c>
@@ -631,29 +649,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
       <c r="P8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -667,13 +694,16 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
       <c r="D11">
         <v>10</v>
       </c>
@@ -681,7 +711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -689,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -697,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -708,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -719,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -729,16 +759,22 @@
       <c r="C16">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="C17">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -748,13 +784,16 @@
       <c r="C18">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -762,7 +801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -770,7 +809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -778,7 +817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -786,7 +825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B1000A-925D-644D-95F3-1BC57D0E088E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24FF5A-C2D0-5E41-A5A8-64A52E172B38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,6 +586,9 @@
       <c r="D3">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -614,6 +617,9 @@
       <c r="D5">
         <v>14</v>
       </c>
+      <c r="E5">
+        <v>18.5</v>
+      </c>
       <c r="P5" t="s">
         <v>37</v>
       </c>
@@ -645,6 +651,9 @@
       <c r="D7">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
       <c r="P7" t="s">
         <v>37</v>
       </c>
@@ -662,6 +671,9 @@
       <c r="D8">
         <v>14</v>
       </c>
+      <c r="E8">
+        <v>18.5</v>
+      </c>
       <c r="P8" t="s">
         <v>37</v>
       </c>
@@ -679,6 +691,9 @@
       <c r="D9">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -707,6 +722,9 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
       <c r="P11" t="s">
         <v>37</v>
       </c>
@@ -718,6 +736,9 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -726,6 +747,9 @@
       <c r="C13">
         <v>10</v>
       </c>
+      <c r="E13">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -737,6 +761,9 @@
       <c r="D14">
         <v>6</v>
       </c>
+      <c r="E14">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -748,6 +775,9 @@
       <c r="D15">
         <v>6</v>
       </c>
+      <c r="E15">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -763,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -774,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -788,12 +818,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -801,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -809,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -817,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -825,12 +855,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C24">
         <v>10</v>
+      </c>
+      <c r="E24">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24FF5A-C2D0-5E41-A5A8-64A52E172B38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60097D-5C5E-594F-B699-990D35C8D04E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Name:</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Anne Dißelkamp-Tietze</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,7 +624,7 @@
         <v>18.5</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -637,6 +640,9 @@
       <c r="D6">
         <v>10.5</v>
       </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -655,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -674,9 +680,6 @@
       <c r="E8">
         <v>18.5</v>
       </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -694,6 +697,9 @@
       <c r="E9">
         <v>14</v>
       </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -708,6 +714,9 @@
       <c r="D10">
         <v>10.5</v>
       </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -804,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -817,13 +826,16 @@
       <c r="D18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -831,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -839,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -847,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -855,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60097D-5C5E-594F-B699-990D35C8D04E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90185971-7992-46F0-8C11-E9BC7442D1AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -512,16 +512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +571,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -593,7 +593,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -606,8 +606,11 @@
       <c r="D4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -627,7 +630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -640,11 +643,14 @@
       <c r="D6">
         <v>10.5</v>
       </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
       <c r="P6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -664,7 +670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -681,7 +687,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -701,7 +707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -714,11 +720,14 @@
       <c r="D10">
         <v>10.5</v>
       </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
       <c r="P10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -738,7 +747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -749,7 +758,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -760,7 +769,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -774,7 +783,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -788,7 +797,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -802,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="D17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -830,12 +842,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -843,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -851,7 +863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -859,7 +871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -867,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90185971-7992-46F0-8C11-E9BC7442D1AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5B58F-9078-4E7B-A835-EA79794B2991}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,6 +810,9 @@
       <c r="D16">
         <v>11</v>
       </c>
+      <c r="E16">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -837,6 +840,9 @@
       </c>
       <c r="D18">
         <v>11</v>
+      </c>
+      <c r="E18">
+        <v>16.5</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5B58F-9078-4E7B-A835-EA79794B2991}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF771-D556-EF44-A612-825F2BFB6024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -516,12 +516,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +571,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -593,7 +593,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -630,7 +630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -646,11 +646,14 @@
       <c r="E6">
         <v>15</v>
       </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
       <c r="P6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -670,7 +673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -687,7 +690,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -707,7 +710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -723,11 +726,14 @@
       <c r="E10">
         <v>15</v>
       </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
       <c r="P10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -747,7 +753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -757,8 +763,11 @@
       <c r="E12">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -768,8 +777,11 @@
       <c r="E13">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -783,7 +795,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -797,7 +809,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -813,8 +825,11 @@
       <c r="E16">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -827,8 +842,11 @@
       <c r="E17">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -844,16 +862,19 @@
       <c r="E18">
         <v>16.5</v>
       </c>
+      <c r="F18">
+        <v>14.5</v>
+      </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -861,7 +882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -869,7 +890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -877,7 +898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -885,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -894,6 +915,9 @@
       </c>
       <c r="E24">
         <v>14.5</v>
+      </c>
+      <c r="F24">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF771-D556-EF44-A612-825F2BFB6024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6400B79-0DDA-4CF6-92E6-370BA5B173BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -512,16 +512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +571,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -592,8 +592,11 @@
       <c r="E3">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -610,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -626,11 +629,14 @@
       <c r="E5">
         <v>18.5</v>
       </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
       <c r="P5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -653,7 +659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -669,11 +675,14 @@
       <c r="E7">
         <v>14</v>
       </c>
+      <c r="F7">
+        <v>6.5</v>
+      </c>
       <c r="P7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -689,8 +698,11 @@
       <c r="E8">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -706,11 +718,14 @@
       <c r="E9">
         <v>14</v>
       </c>
+      <c r="F9">
+        <v>6.5</v>
+      </c>
       <c r="P9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -733,7 +748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -749,11 +764,14 @@
       <c r="E11">
         <v>14</v>
       </c>
+      <c r="F11">
+        <v>6.5</v>
+      </c>
       <c r="P11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -767,7 +785,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -781,7 +799,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -794,8 +812,11 @@
       <c r="E14">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -808,8 +829,11 @@
       <c r="E15">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -829,7 +853,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -846,7 +870,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -869,12 +893,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -882,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -890,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -898,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -906,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6400B79-0DDA-4CF6-92E6-370BA5B173BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8D500-4B5D-4E03-8EC3-38906699F0C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,6 +678,9 @@
       <c r="F7">
         <v>6.5</v>
       </c>
+      <c r="H7">
+        <v>15.5</v>
+      </c>
       <c r="P7" t="s">
         <v>41</v>
       </c>
@@ -721,6 +724,9 @@
       <c r="F9">
         <v>6.5</v>
       </c>
+      <c r="H9">
+        <v>15.5</v>
+      </c>
       <c r="P9" t="s">
         <v>37</v>
       </c>
@@ -767,6 +773,9 @@
       <c r="F11">
         <v>6.5</v>
       </c>
+      <c r="H11">
+        <v>15.5</v>
+      </c>
       <c r="P11" t="s">
         <v>37</v>
       </c>
@@ -852,6 +861,9 @@
       <c r="F16">
         <v>14.5</v>
       </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -869,6 +881,9 @@
       <c r="F17">
         <v>14.5</v>
       </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -888,6 +903,9 @@
       </c>
       <c r="F18">
         <v>14.5</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8D500-4B5D-4E03-8EC3-38906699F0C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B905E2D2-9229-D34F-A935-1388B8BF8099}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Name:</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Blatt 5</t>
   </si>
   <si>
-    <t>Ferienblatt</t>
-  </si>
-  <si>
     <t>Blatt 6</t>
   </si>
   <si>
@@ -132,15 +129,9 @@
     <t>Govina Balasuloramaniam</t>
   </si>
   <si>
-    <t>Vorrechnen:</t>
-  </si>
-  <si>
     <t>Anna Sophie Taschenberger</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Sanae Lamrini</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
   </si>
   <si>
     <t>Anne Dißelkamp-Tietze</t>
-  </si>
-  <si>
-    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -510,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,21 +552,15 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -595,10 +577,13 @@
       <c r="F3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -612,10 +597,13 @@
       <c r="E4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -632,13 +620,13 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>14.5</v>
@@ -655,13 +643,13 @@
       <c r="F6">
         <v>9</v>
       </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -678,16 +666,13 @@
       <c r="F7">
         <v>6.5</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>15.5</v>
       </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -704,10 +689,13 @@
       <c r="F8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -724,16 +712,13 @@
       <c r="F9">
         <v>6.5</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>15.5</v>
       </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>14.5</v>
@@ -750,13 +735,13 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="P10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -773,16 +758,13 @@
       <c r="F11">
         <v>6.5</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>15.5</v>
       </c>
-      <c r="P11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -794,9 +776,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -808,9 +790,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>12.5</v>
@@ -825,9 +807,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>12.5</v>
@@ -842,9 +824,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>5.5</v>
@@ -861,13 +843,13 @@
       <c r="F16">
         <v>14.5</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>19.5</v>
@@ -881,13 +863,13 @@
       <c r="F17">
         <v>14.5</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -904,53 +886,50 @@
       <c r="F18">
         <v>14.5</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>10</v>
       </c>
-      <c r="P18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>10</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B905E2D2-9229-D34F-A935-1388B8BF8099}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E532C-8489-4066-9C1A-2D45FB9CBE48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Mathis Bräucker</t>
   </si>
   <si>
-    <t>Ünlü Göksu</t>
-  </si>
-  <si>
     <t>Steffen Homann</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Anne Dißelkamp-Tietze</t>
+  </si>
+  <si>
+    <t>Göksu Ünlü</t>
   </si>
 </sst>
 </file>
@@ -500,16 +500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,14 +553,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -580,8 +580,11 @@
       <c r="G3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -601,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -623,10 +626,13 @@
       <c r="G5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>14.5</v>
@@ -646,8 +652,11 @@
       <c r="G6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -670,7 +679,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -692,8 +701,11 @@
       <c r="G8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -716,7 +728,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -738,8 +750,11 @@
       <c r="G10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -762,9 +777,9 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -775,10 +790,13 @@
       <c r="F12">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -790,9 +808,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>12.5</v>
@@ -806,10 +824,13 @@
       <c r="F14">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>12.5</v>
@@ -823,10 +844,13 @@
       <c r="F15">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>5.5</v>
@@ -847,9 +871,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>19.5</v>
@@ -867,9 +891,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -890,46 +914,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>10</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E532C-8489-4066-9C1A-2D45FB9CBE48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C53F89-D04D-B64E-88B5-20F8DB3DD920}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,9 +66,6 @@
     <t>Blatt 12</t>
   </si>
   <si>
-    <t>Summe:</t>
-  </si>
-  <si>
     <t>Süheda Yüksel</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Göksu Ünlü</t>
+  </si>
+  <si>
+    <t>Summe:(100)</t>
   </si>
 </sst>
 </file>
@@ -500,16 +500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,17 +550,21 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>SUM(B2:M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -583,10 +587,14 @@
       <c r="H3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f>SUM(B3:M3)</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -603,10 +611,14 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f>SUM(B4:M4)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -629,10 +641,14 @@
       <c r="H5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>SUM(B5:M5)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>14.5</v>
@@ -655,10 +671,14 @@
       <c r="H6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f>SUM(B6:M6)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -678,10 +698,17 @@
       <c r="G7">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f>SUM(B7:M7)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -704,10 +731,14 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f>SUM(B8:M8)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -727,10 +758,17 @@
       <c r="G9">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f>SUM(B9:M9)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>14.5</v>
@@ -753,10 +791,14 @@
       <c r="H10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f>SUM(B10:M10)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -776,10 +818,17 @@
       <c r="G11">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <f>SUM(B11:M11)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -793,10 +842,14 @@
       <c r="H12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>SUM(B12:M12)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -807,10 +860,14 @@
       <c r="F13">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>SUM(B13:M13)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>12.5</v>
@@ -827,10 +884,14 @@
       <c r="H14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f>SUM(B14:M14)</f>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>12.5</v>
@@ -847,10 +908,14 @@
       <c r="H15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>SUM(B15:M15)</f>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>5.5</v>
@@ -870,10 +935,17 @@
       <c r="G16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <f>SUM(B16:M16)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>19.5</v>
@@ -890,10 +962,17 @@
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <f>SUM(B17:M17)</f>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -913,47 +992,58 @@
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <f>SUM(B18:M18)</f>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f>SUM(B19:M19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
       <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -963,6 +1053,10 @@
       </c>
       <c r="F24">
         <v>6.5</v>
+      </c>
+      <c r="N24">
+        <f>SUM(B24:M24)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C53F89-D04D-B64E-88B5-20F8DB3DD920}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B941476D-E265-4B0B-8879-8E804AFA162D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -501,15 +507,15 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,16 +559,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="N2">
-        <f>SUM(B2:M2)</f>
+        <f t="shared" ref="N2:N19" si="0">SUM(B2:M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -587,12 +593,15 @@
       <c r="H3">
         <v>6</v>
       </c>
+      <c r="I3">
+        <v>9.5</v>
+      </c>
       <c r="N3">
-        <f>SUM(B3:M3)</f>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -612,11 +621,11 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f>SUM(B4:M4)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -641,12 +650,15 @@
       <c r="H5">
         <v>6</v>
       </c>
+      <c r="I5">
+        <v>9.5</v>
+      </c>
       <c r="N5">
-        <f>SUM(B5:M5)</f>
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -671,12 +683,15 @@
       <c r="H6">
         <v>6</v>
       </c>
+      <c r="I6">
+        <v>9.5</v>
+      </c>
       <c r="N6">
-        <f>SUM(B6:M6)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -701,12 +716,15 @@
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
       <c r="N7">
-        <f>SUM(B7:M7)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -731,12 +749,15 @@
       <c r="H8">
         <v>6</v>
       </c>
+      <c r="I8">
+        <v>9.5</v>
+      </c>
       <c r="N8">
-        <f>SUM(B8:M8)</f>
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -761,12 +782,15 @@
       <c r="H9">
         <v>5</v>
       </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
       <c r="N9">
-        <f>SUM(B9:M9)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -791,12 +815,15 @@
       <c r="H10">
         <v>6</v>
       </c>
+      <c r="I10">
+        <v>9.5</v>
+      </c>
       <c r="N10">
-        <f>SUM(B10:M10)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -821,12 +848,15 @@
       <c r="H11">
         <v>5</v>
       </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
       <c r="N11">
-        <f>SUM(B11:M11)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -843,11 +873,11 @@
         <v>7</v>
       </c>
       <c r="N12">
-        <f>SUM(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -861,11 +891,11 @@
         <v>6.5</v>
       </c>
       <c r="N13">
-        <f>SUM(B13:M13)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -885,11 +915,11 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <f>SUM(B14:M14)</f>
+        <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -909,11 +939,11 @@
         <v>7</v>
       </c>
       <c r="N15">
-        <f>SUM(B15:M15)</f>
+        <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -939,11 +969,11 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <f>SUM(B16:M16)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -966,11 +996,11 @@
         <v>5</v>
       </c>
       <c r="N17">
-        <f>SUM(B17:M17)</f>
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -996,20 +1026,20 @@
         <v>5</v>
       </c>
       <c r="N18">
-        <f>SUM(B18:M18)</f>
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="N19">
-        <f>SUM(B19:M19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +1071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B941476D-E265-4B0B-8879-8E804AFA162D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705FB7A-6CE5-B345-A70A-3651630D6DBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -507,15 +501,15 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -568,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -601,7 +595,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -620,12 +614,15 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>7.5</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -658,7 +655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -691,7 +688,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -724,7 +721,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -757,7 +754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -790,7 +787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -823,7 +820,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -856,7 +853,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -872,12 +869,15 @@
       <c r="H12">
         <v>7</v>
       </c>
+      <c r="I12">
+        <v>9.5</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -895,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -914,12 +914,15 @@
       <c r="H14">
         <v>7</v>
       </c>
+      <c r="I14">
+        <v>9.5</v>
+      </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -938,12 +941,15 @@
       <c r="H15">
         <v>7</v>
       </c>
+      <c r="I15">
+        <v>9.5</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -973,7 +979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705FB7A-6CE5-B345-A70A-3651630D6DBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D08A8A-27B2-4FD1-92B5-EADEB46E1C31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -93,9 +99,6 @@
     <t>Steffen Homann</t>
   </si>
   <si>
-    <t>Florian Reicke</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tatjana Schwarz </t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>Summe:(100)</t>
+  </si>
+  <si>
+    <t>Florian Reiche</t>
   </si>
 </sst>
 </file>
@@ -501,15 +507,15 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +556,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -562,9 +568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -595,7 +601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -622,7 +628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -655,9 +661,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>14.5</v>
@@ -688,7 +694,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -721,7 +727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -754,7 +760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -787,7 +793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -820,7 +826,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -853,9 +859,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -877,9 +883,9 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -895,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -922,9 +928,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>12.5</v>
@@ -949,9 +955,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>5.5</v>
@@ -979,9 +985,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>19.5</v>
@@ -1006,9 +1012,9 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1036,50 +1042,50 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>10</v>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D08A8A-27B2-4FD1-92B5-EADEB46E1C31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F989982-76BE-FD43-AD10-3648EE53CBDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Name:</t>
   </si>
@@ -145,6 +139,9 @@
   </si>
   <si>
     <t>Florian Reiche</t>
+  </si>
+  <si>
+    <t>Summe=72</t>
   </si>
 </sst>
 </file>
@@ -504,18 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -568,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -596,12 +593,15 @@
       <c r="I3">
         <v>9.5</v>
       </c>
+      <c r="J3">
+        <v>21.5</v>
+      </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -617,18 +617,18 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="I4">
         <v>7.5</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -656,12 +656,15 @@
       <c r="I5">
         <v>9.5</v>
       </c>
+      <c r="J5">
+        <v>21.5</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -694,7 +697,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -722,12 +725,15 @@
       <c r="I7">
         <v>12</v>
       </c>
+      <c r="J7">
+        <v>16.5</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -755,12 +761,15 @@
       <c r="I8">
         <v>9.5</v>
       </c>
+      <c r="J8">
+        <v>21.5</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -788,12 +797,15 @@
       <c r="I9">
         <v>12</v>
       </c>
+      <c r="J9">
+        <v>16.5</v>
+      </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -826,7 +838,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -854,12 +866,15 @@
       <c r="I11">
         <v>12</v>
       </c>
+      <c r="J11">
+        <v>16.5</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -883,7 +898,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -901,7 +916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -928,7 +943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -955,7 +970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -980,12 +995,15 @@
       <c r="H16">
         <v>5</v>
       </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1007,12 +1025,15 @@
       <c r="H17">
         <v>5</v>
       </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1037,12 +1058,15 @@
       <c r="H18">
         <v>5</v>
       </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F989982-76BE-FD43-AD10-3648EE53CBDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60388BF9-A74D-4DD1-9652-B29BC448E097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -503,16 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -565,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -601,7 +607,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -620,15 +626,18 @@
       <c r="I4">
         <v>7.5</v>
       </c>
+      <c r="J4">
+        <v>9.5</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>55.5</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -664,7 +673,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -692,12 +701,15 @@
       <c r="I6">
         <v>9.5</v>
       </c>
+      <c r="J6">
+        <v>19.25</v>
+      </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -733,7 +745,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -769,7 +781,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -805,7 +817,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -833,12 +845,15 @@
       <c r="I10">
         <v>9.5</v>
       </c>
+      <c r="J10">
+        <v>19.25</v>
+      </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -874,7 +889,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -893,12 +908,15 @@
       <c r="I12">
         <v>9.5</v>
       </c>
+      <c r="J12">
+        <v>17.5</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -916,7 +934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -938,12 +956,15 @@
       <c r="I14">
         <v>9.5</v>
       </c>
+      <c r="J14">
+        <v>17.5</v>
+      </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -965,12 +986,15 @@
       <c r="I15">
         <v>9.5</v>
       </c>
+      <c r="J15">
+        <v>17.5</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -995,15 +1019,18 @@
       <c r="H16">
         <v>5</v>
       </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1025,15 +1052,18 @@
       <c r="H17">
         <v>5</v>
       </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
       <c r="J17">
         <v>15</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1058,15 +1088,18 @@
       <c r="H18">
         <v>5</v>
       </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
       <c r="J18">
         <v>15</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60388BF9-A74D-4DD1-9652-B29BC448E097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86F402-5F8C-524F-94FC-932A9610DBAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -509,16 +508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -571,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -607,7 +606,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -629,15 +628,18 @@
       <c r="J4">
         <v>9.5</v>
       </c>
+      <c r="K4">
+        <v>8.5</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>55.5</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -673,7 +675,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -704,12 +706,15 @@
       <c r="J6">
         <v>19.25</v>
       </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>119.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -745,7 +750,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -781,7 +786,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -817,7 +822,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -848,12 +853,15 @@
       <c r="J10">
         <v>19.25</v>
       </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>119.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -889,7 +897,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -911,12 +919,15 @@
       <c r="J12">
         <v>17.5</v>
       </c>
+      <c r="K12">
+        <v>3.5</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -934,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -959,12 +970,15 @@
       <c r="J14">
         <v>17.5</v>
       </c>
+      <c r="K14">
+        <v>3.5</v>
+      </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -989,12 +1003,15 @@
       <c r="J15">
         <v>17.5</v>
       </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1116,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1140,7 +1157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86F402-5F8C-524F-94FC-932A9610DBAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364D8ED-A8E5-49A0-A9AB-F4C039F4E79F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -509,15 +510,15 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -570,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -601,12 +602,15 @@
       <c r="J3">
         <v>21.5</v>
       </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>130.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -631,15 +635,18 @@
       <c r="K4">
         <v>8.5</v>
       </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>67.5</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -670,12 +677,15 @@
       <c r="J5">
         <v>21.5</v>
       </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -714,7 +724,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -745,12 +755,15 @@
       <c r="J7">
         <v>16.5</v>
       </c>
+      <c r="K7">
+        <v>11.5</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>121.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -781,12 +794,15 @@
       <c r="J8">
         <v>21.5</v>
       </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -817,12 +833,15 @@
       <c r="J9">
         <v>16.5</v>
       </c>
+      <c r="K9">
+        <v>11.5</v>
+      </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>121.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -861,7 +880,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -892,12 +911,15 @@
       <c r="J11">
         <v>16.5</v>
       </c>
+      <c r="K11">
+        <v>11.5</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>121.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -927,7 +949,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -945,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -978,7 +1000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364D8ED-A8E5-49A0-A9AB-F4C039F4E79F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084D634-957F-9A4D-8D62-776E7D643145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -510,15 +509,15 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -571,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -610,7 +609,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -646,7 +645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -685,7 +684,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -724,7 +723,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -763,7 +762,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -802,7 +801,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -841,7 +840,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -880,7 +879,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -919,7 +918,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -949,7 +948,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -967,7 +966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -995,12 +994,15 @@
       <c r="K14">
         <v>3.5</v>
       </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1028,12 +1030,15 @@
       <c r="K15">
         <v>3.5</v>
       </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084D634-957F-9A4D-8D62-776E7D643145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404D9FD-8A83-45AB-96F7-D0AF080CC37F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -508,16 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -570,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -609,7 +610,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -637,15 +638,18 @@
       <c r="L4">
         <v>3.5</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>71.5</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -684,7 +688,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -723,7 +727,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -762,7 +766,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -801,7 +805,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -840,7 +844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -879,7 +883,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -918,7 +922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -948,7 +952,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -966,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>

--- a/Punkteliste.xlsx
+++ b/Punkteliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404D9FD-8A83-45AB-96F7-D0AF080CC37F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A6CC8-049C-4782-9036-9CBFD144603D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16215" xr2:uid="{F251C915-39F4-D646-9BC6-0B4531DD3551}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF781-B5C8-D246-8C0B-9C520014FB94}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,11 +639,11 @@
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>71.5</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -1001,9 +1001,12 @@
       <c r="L14">
         <v>3</v>
       </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1037,9 +1040,12 @@
       <c r="L15">
         <v>3</v>
       </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
